--- a/biology/Botanique/Pyxillaceae/Pyxillaceae.xlsx
+++ b/biology/Botanique/Pyxillaceae/Pyxillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pyxillaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Rhizosoleniales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Pyxilla, dérivé du grec πυξις / pyxis, boite, et -ill qui peut signifier rouler, tordue, en référence à la forme de la diatomée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Pyxilla, dérivé du grec πυξις / pyxis, boite, et -ill qui peut signifier rouler, tordue, en référence à la forme de la diatomée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Pyxilla présente des « frustules libres, oblongues, bivalves transversalement, en forme de boîte,  finement ponctuée ; chaque valve, se terminant par un court et fin spicule (pièce pointue en forme d'aiguille.) »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Pyxilla présente des « frustules libres, oblongues, bivalves transversalement, en forme de boîte,  finement ponctuée ; chaque valve, se terminant par un court et fin spicule (pièce pointue en forme d'aiguille.) ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Pyxilla est une diatomée rare, découverte dans des sédiments de la Barbade (Caraïbes)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Pyxilla est une diatomée rare, découverte dans des sédiments de la Barbade (Caraïbes).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (24 juillet 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (24 juillet 2022) :
 Pyxilla Greville, 1865
 Rhizosolenia Ehrenberg, 1843</t>
         </is>
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pyxillaceae (Schütt) Simonsen, 1972[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pyxillaceae (Schütt) Simonsen, 1972.
 </t>
         </is>
       </c>
